--- a/タスク一覧.xlsx
+++ b/タスク一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori-kondou\Downloads\01_タスク-20230703T061917Z-001\01_タスク\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4014DFB-C999-4338-967B-8714D0637184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DD71B-9A26-4E02-8B9E-499EDB8A1534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,22 @@
     <sheet name="タスク" sheetId="1" r:id="rId1"/>
     <sheet name="工数集計" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -71,10 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SUSのAWS止まっているか確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↓今日やるやつ</t>
     <rPh sb="1" eb="3">
       <t>キョウ</t>
@@ -164,6 +169,16 @@
     <t>C社@cccプロジェクト</t>
     <rPh sb="1" eb="2">
       <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去に完了したタスク</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -265,9 +280,60 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -301,7 +367,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45110.670122337964" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45110.702395138891" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
   <cacheSource type="worksheet">
     <worksheetSource name="テーブル1"/>
   </cacheSource>
@@ -317,6 +383,9 @@
     <cacheField name="時刻" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="作業時間" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.25" maxValue="3.5"/>
+    </cacheField>
     <cacheField name="プロジェクト" numFmtId="0">
       <sharedItems containsBlank="1" count="8">
         <s v="A社@aaaプロジェクト"/>
@@ -330,10 +399,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="タスク" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="作業時間" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.25" maxValue="3.5"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="備考" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -348,92 +414,76 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
   <r>
     <x v="0"/>
     <s v="10:00-11:00"/>
+    <n v="0.25"/>
     <x v="0"/>
-    <s v="SUSのAWS止まっているか確認"/>
-    <n v="0.25"/>
+    <s v="過去に完了したタスク"/>
     <m/>
   </r>
   <r>
     <x v="1"/>
     <m/>
+    <m/>
     <x v="1"/>
     <s v="↓今日やるやつ"/>
-    <m/>
     <m/>
   </r>
   <r>
     <x v="2"/>
     <m/>
+    <n v="3.5"/>
     <x v="2"/>
     <s v="今日のタスク"/>
-    <n v="3.5"/>
     <m/>
   </r>
   <r>
     <x v="2"/>
     <m/>
+    <n v="3.5"/>
     <x v="2"/>
     <s v="今日のタスク"/>
-    <n v="3.5"/>
     <m/>
   </r>
   <r>
     <x v="1"/>
     <m/>
+    <m/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="↓明日以降やるやつ"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <s v="明日以降のタスク"/>
     <m/>
   </r>
   <r>
     <x v="1"/>
     <m/>
+    <m/>
     <x v="1"/>
-    <s v="↓明日以降やるやつ"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <s v="明日以降のタスク"/>
-    <m/>
+    <s v="↓繰り返し"/>
     <m/>
   </r>
   <r>
     <x v="1"/>
     <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
-    <s v="↓繰り返し"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
     <m/>
     <x v="3"/>
     <s v="繰り返しタスク"/>
-    <m/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -446,6 +496,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="9">
         <item x="0"/>
@@ -460,12 +511,11 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
-    <field x="2"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="10">
     <i>
@@ -503,7 +553,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="合計 / 作業時間" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="合計 / 作業時間" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -518,17 +568,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}" name="テーブル1" displayName="テーブル1" ref="A1:F11" totalsRowShown="0">
-  <autoFilter ref="A1:F11" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}" name="テーブル1" displayName="テーブル1" ref="A1:F9">
+  <autoFilter ref="A1:F9" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FAE3049C-FF2B-4537-9B40-76420902DF54}" name="日付" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FAE3049C-FF2B-4537-9B40-76420902DF54}" name="日付" totalsRowLabel="集計" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D7E988AD-4F77-4AF3-A6B7-3EB388EB0B4D}" name="時刻"/>
-    <tableColumn id="3" xr3:uid="{31FBE873-7C88-46A5-B916-6495AA0086F8}" name="プロジェクト" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{09B5D8F7-7093-448B-B628-F19C47CE8F0C}" name="作業時間"/>
+    <tableColumn id="3" xr3:uid="{31FBE873-7C88-46A5-B916-6495AA0086F8}" name="プロジェクト" dataDxfId="6" totalsRowDxfId="5"/>
     <tableColumn id="4" xr3:uid="{5E2D21D8-E7DD-4F2A-B1E8-17796822123F}" name="タスク"/>
-    <tableColumn id="5" xr3:uid="{3A89FDC7-4B54-484B-9482-E2ACF0DF34F1}" name="作業時間" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{C75949A6-BDB1-405F-8E36-80A1EECAC4E9}" name="備考"/>
+    <tableColumn id="6" xr3:uid="{C75949A6-BDB1-405F-8E36-80A1EECAC4E9}" name="備考" totalsRowFunction="count"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -795,20 +845,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.25" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -819,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -838,104 +887,101 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
+      <c r="C2">
         <v>0.25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>45110</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
+      <c r="C4">
         <v>3.5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>45110</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="C6" s="7"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="12" t="s">
+      <c r="A7" s="2">
+        <v>45111</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>45111</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="12" t="s">
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A2:F9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C2 &lt;&gt; ""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -948,7 +994,7 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -962,10 +1008,10 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -978,7 +1024,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13">
         <v>0.25</v>
@@ -994,7 +1040,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13">
         <v>7</v>
@@ -1008,31 +1054,31 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="13">
         <v>7.25</v>

--- a/タスク一覧.xlsx
+++ b/タスク一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori-kondou\Downloads\01_タスク-20230703T061917Z-001\01_タスク\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori-kondou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DD71B-9A26-4E02-8B9E-499EDB8A1534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ACD154-795C-4EA2-8BB5-7DB19600C33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -143,42 +143,42 @@
     <t>合計 / 作業時間</t>
   </si>
   <si>
-    <t>A社@aaaプロジェクト</t>
-  </si>
-  <si>
-    <t>A社@aaaプロジェクト</t>
-    <rPh sb="1" eb="2">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B社@bbbプロジェクト</t>
-  </si>
-  <si>
-    <t>B社@bbbプロジェクト</t>
-    <rPh sb="1" eb="2">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C社@cccプロジェクト</t>
-  </si>
-  <si>
-    <t>C社@cccプロジェクト</t>
-    <rPh sb="1" eb="2">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>過去に完了したタスク</t>
     <rPh sb="0" eb="2">
       <t>カコ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B社#bbbプロジェクト</t>
+  </si>
+  <si>
+    <t>B社#bbbプロジェクト</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A社#aaaプロジェクト</t>
+  </si>
+  <si>
+    <t>A社#aaaプロジェクト</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C社#cccプロジェクト</t>
+  </si>
+  <si>
+    <t>C社#cccプロジェクト</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -280,35 +280,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -367,7 +339,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45110.702395138891" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45111.850258449071" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
   <cacheSource type="worksheet">
     <worksheetSource name="テーブル1"/>
   </cacheSource>
@@ -387,14 +359,17 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.25" maxValue="3.5"/>
     </cacheField>
     <cacheField name="プロジェクト" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
-        <s v="A社@aaaプロジェクト"/>
+      <sharedItems containsBlank="1" count="11">
+        <s v="A社#aaaプロジェクト"/>
         <m/>
-        <s v="B社@bbbプロジェクト"/>
-        <s v="C社@cccプロジェクト"/>
+        <s v="B社#bbbプロジェクト"/>
+        <s v="C社#cccプロジェクト"/>
+        <s v="村田機械@HMI" u="1"/>
+        <s v="B社@bbbプロジェクト" u="1"/>
         <s v="社内業務" u="1"/>
-        <s v="村田機械@HMI" u="1"/>
+        <s v="A社@aaaプロジェクト" u="1"/>
         <s v="村田機械@PNP変換ツール" u="1"/>
+        <s v="C社@cccプロジェクト" u="1"/>
         <s v="村田機械@PNPログコレクタ" u="1"/>
       </sharedItems>
     </cacheField>
@@ -483,7 +458,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -498,14 +473,17 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="9">
+      <items count="12">
         <item x="0"/>
+        <item m="1" x="7"/>
         <item x="2"/>
+        <item m="1" x="5"/>
         <item x="3"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
         <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -528,22 +506,22 @@
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i r="1">
-      <x v="7"/>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -571,10 +549,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}" name="テーブル1" displayName="テーブル1" ref="A1:F9">
   <autoFilter ref="A1:F9" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FAE3049C-FF2B-4537-9B40-76420902DF54}" name="日付" totalsRowLabel="集計" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{FAE3049C-FF2B-4537-9B40-76420902DF54}" name="日付" totalsRowLabel="集計" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{D7E988AD-4F77-4AF3-A6B7-3EB388EB0B4D}" name="時刻"/>
     <tableColumn id="8" xr3:uid="{09B5D8F7-7093-448B-B628-F19C47CE8F0C}" name="作業時間"/>
-    <tableColumn id="3" xr3:uid="{31FBE873-7C88-46A5-B916-6495AA0086F8}" name="プロジェクト" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{31FBE873-7C88-46A5-B916-6495AA0086F8}" name="プロジェクト" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="4" xr3:uid="{5E2D21D8-E7DD-4F2A-B1E8-17796822123F}" name="タスク"/>
     <tableColumn id="6" xr3:uid="{C75949A6-BDB1-405F-8E36-80A1EECAC4E9}" name="備考" totalsRowFunction="count"/>
   </tableColumns>
@@ -847,9 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -891,10 +867,10 @@
         <v>0.25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -915,7 +891,7 @@
         <v>3.5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -929,7 +905,7 @@
         <v>3.5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -950,7 +926,7 @@
         <v>45111</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -969,7 +945,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="D9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -994,12 +970,12 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
@@ -1024,7 +1000,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="13">
         <v>0.25</v>
@@ -1040,7 +1016,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="13">
         <v>7</v>
@@ -1054,7 +1030,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="13"/>
     </row>
@@ -1066,7 +1042,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="13"/>
     </row>

--- a/タスク一覧.xlsx
+++ b/タスク一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori-kondou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ACD154-795C-4EA2-8BB5-7DB19600C33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51712489-E53C-45AF-A160-DAE39D6F8F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -255,15 +255,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -274,19 +267,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -321,9 +365,20 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,7 +394,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45111.850258449071" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45111.867054050927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
   <cacheSource type="worksheet">
     <worksheetSource name="テーブル1"/>
   </cacheSource>
@@ -373,10 +428,10 @@
         <s v="村田機械@PNPログコレクタ" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="タスク" numFmtId="0">
+    <cacheField name="タスク" numFmtId="49">
       <sharedItems/>
     </cacheField>
-    <cacheField name="備考" numFmtId="0">
+    <cacheField name="備考" numFmtId="49">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
@@ -458,7 +513,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -546,17 +601,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}" name="テーブル1" displayName="テーブル1" ref="A1:F9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}" name="テーブル1" displayName="テーブル1" ref="A1:F9" dataDxfId="8">
   <autoFilter ref="A1:F9" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FAE3049C-FF2B-4537-9B40-76420902DF54}" name="日付" totalsRowLabel="集計" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D7E988AD-4F77-4AF3-A6B7-3EB388EB0B4D}" name="時刻"/>
-    <tableColumn id="8" xr3:uid="{09B5D8F7-7093-448B-B628-F19C47CE8F0C}" name="作業時間"/>
-    <tableColumn id="3" xr3:uid="{31FBE873-7C88-46A5-B916-6495AA0086F8}" name="プロジェクト" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{5E2D21D8-E7DD-4F2A-B1E8-17796822123F}" name="タスク"/>
-    <tableColumn id="6" xr3:uid="{C75949A6-BDB1-405F-8E36-80A1EECAC4E9}" name="備考" totalsRowFunction="count"/>
+    <tableColumn id="1" xr3:uid="{FAE3049C-FF2B-4537-9B40-76420902DF54}" name="日付" totalsRowLabel="集計" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D7E988AD-4F77-4AF3-A6B7-3EB388EB0B4D}" name="時刻" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{09B5D8F7-7093-448B-B628-F19C47CE8F0C}" name="作業時間" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{31FBE873-7C88-46A5-B916-6495AA0086F8}" name="プロジェクト" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5E2D21D8-E7DD-4F2A-B1E8-17796822123F}" name="タスク" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C75949A6-BDB1-405F-8E36-80A1EECAC4E9}" name="備考" totalsRowFunction="count" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -825,7 +880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -857,99 +914,110 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>45109</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0.25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>45110</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
         <v>3.5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>45110</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
         <v>3.5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>45111</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="F9" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -959,8 +1027,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -970,7 +1039,7 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -983,7 +1052,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
@@ -991,72 +1060,67 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10">
+      <c r="A4" s="3">
         <v>45109</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10">
+      <c r="A6" s="3">
         <v>45110</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10">
+      <c r="A8" s="3">
         <v>45111</v>
       </c>
-      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="13"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13">
         <v>7.25</v>
       </c>
     </row>

--- a/タスク一覧.xlsx
+++ b/タスク一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori-kondou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51712489-E53C-45AF-A160-DAE39D6F8F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D0014-0DAE-4668-BAFC-A96E4E9F10A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -179,6 +179,23 @@
     <t>C社#cccプロジェクト</t>
     <rPh sb="1" eb="2">
       <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+  </si>
+  <si>
+    <t>【MTG】定例</t>
+    <rPh sb="5" eb="7">
+      <t>テイレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20230707_aaa定例.md</t>
+    <rPh sb="12" eb="14">
+      <t>テイレイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -300,6 +317,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -308,7 +326,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -394,16 +412,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45111.867054050927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45114.436573379629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
   <cacheSource type="worksheet">
     <worksheetSource name="テーブル1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="日付" numFmtId="176">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-07-02T00:00:00" maxDate="2023-07-05T00:00:00" count="4">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-07-02T00:00:00" maxDate="2023-07-08T00:00:00" count="5">
         <d v="2023-07-02T00:00:00"/>
         <m/>
         <d v="2023-07-03T00:00:00"/>
+        <d v="2023-07-07T00:00:00"/>
         <d v="2023-07-04T00:00:00"/>
       </sharedItems>
     </cacheField>
@@ -432,7 +451,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="備考" numFmtId="49">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -444,7 +463,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
   <r>
     <x v="0"/>
     <s v="10:00-11:00"/>
@@ -470,7 +489,15 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
+    <s v="10:00-11:00"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="【MTG】定例"/>
+    <s v="20230707_aaa定例.md"/>
+  </r>
+  <r>
+    <x v="3"/>
     <m/>
     <n v="3.5"/>
     <x v="2"/>
@@ -486,7 +513,7 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="4"/>
     <m/>
     <m/>
     <x v="3"/>
@@ -513,13 +540,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="2"/>
+        <item x="4"/>
         <item x="3"/>
         <item x="1"/>
         <item t="default"/>
@@ -550,7 +578,7 @@
     <field x="0"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -571,6 +599,15 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="4"/>
@@ -601,8 +638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}" name="テーブル1" displayName="テーブル1" ref="A1:F9" dataDxfId="8">
-  <autoFilter ref="A1:F9" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}" name="テーブル1" displayName="テーブル1" ref="A1:F10" dataDxfId="8">
+  <autoFilter ref="A1:F10" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FAE3049C-FF2B-4537-9B40-76420902DF54}" name="日付" totalsRowLabel="集計" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D7E988AD-4F77-4AF3-A6B7-3EB388EB0B4D}" name="時刻" dataDxfId="6"/>
@@ -878,19 +915,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="49.25" customWidth="1"/>
+    <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="56.125" customWidth="1"/>
+    <col min="7" max="7" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -959,70 +996,90 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5">
-        <v>45110</v>
-      </c>
-      <c r="B5" s="7"/>
+        <v>45114</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
+        <v>45114</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
         <v>3.5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
         <v>45111</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="13" t="s">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F10" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:F9">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:F10">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C2 &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1036,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA74EF5-FC8F-4270-95EC-C1F653A2EC71}">
-  <dimension ref="A3:B13"/>
+  <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1063,7 +1120,7 @@
       <c r="A4" s="3">
         <v>45109</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="16">
         <v>0.25</v>
       </c>
     </row>
@@ -1071,7 +1128,7 @@
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="16">
         <v>0.25</v>
       </c>
     </row>
@@ -1079,49 +1136,78 @@
       <c r="A6" s="3">
         <v>45110</v>
       </c>
-      <c r="B6">
-        <v>7</v>
+      <c r="B6" s="16">
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>7</v>
+      <c r="B7" s="16">
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>45111</v>
       </c>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
+      <c r="A10" s="3">
+        <v>45114</v>
+      </c>
+      <c r="B10" s="16">
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="16">
+        <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>7.25</v>
+      <c r="B16" s="16">
+        <v>8.25</v>
       </c>
     </row>
   </sheetData>

--- a/タスク一覧.xlsx
+++ b/タスク一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori-kondou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D0014-0DAE-4668-BAFC-A96E4E9F10A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E61C57-E955-46B0-9319-04D646F663C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タスク" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="34" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -62,13 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業時間</t>
-    <rPh sb="0" eb="4">
-      <t>サギョウジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -140,9 +133,6 @@
     <t>行ラベル</t>
   </si>
   <si>
-    <t>合計 / 作業時間</t>
-  </si>
-  <si>
     <t>過去に完了したタスク</t>
     <rPh sb="0" eb="2">
       <t>カコ</t>
@@ -198,6 +188,23 @@
       <t>テイレイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予測時間</t>
+    <rPh sb="0" eb="4">
+      <t>ヨソクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績時間</t>
+    <rPh sb="0" eb="4">
+      <t>ジッセキジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計 / 実績時間</t>
   </si>
 </sst>
 </file>
@@ -322,7 +329,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -412,11 +422,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45114.436573379629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="近藤 佳記" refreshedDate="45114.55485601852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{E88AACAF-1866-4570-96C6-23C2DE4CFD4C}">
   <cacheSource type="worksheet">
     <worksheetSource name="テーブル1"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="7">
     <cacheField name="日付" numFmtId="176">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-07-02T00:00:00" maxDate="2023-07-08T00:00:00" count="5">
         <d v="2023-07-02T00:00:00"/>
@@ -429,7 +439,10 @@
     <cacheField name="時刻" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="作業時間" numFmtId="0">
+    <cacheField name="予測時間" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="実績時間" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.25" maxValue="3.5"/>
     </cacheField>
     <cacheField name="プロジェクト" numFmtId="0">
@@ -467,6 +480,7 @@
   <r>
     <x v="0"/>
     <s v="10:00-11:00"/>
+    <m/>
     <n v="0.25"/>
     <x v="0"/>
     <s v="過去に完了したタスク"/>
@@ -476,12 +490,14 @@
     <x v="1"/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
     <s v="↓今日やるやつ"/>
     <m/>
   </r>
   <r>
     <x v="2"/>
+    <m/>
     <m/>
     <n v="3.5"/>
     <x v="2"/>
@@ -491,6 +507,7 @@
   <r>
     <x v="3"/>
     <s v="10:00-11:00"/>
+    <m/>
     <n v="1"/>
     <x v="0"/>
     <s v="【MTG】定例"/>
@@ -499,6 +516,7 @@
   <r>
     <x v="3"/>
     <m/>
+    <m/>
     <n v="3.5"/>
     <x v="2"/>
     <s v="今日のタスク"/>
@@ -508,6 +526,7 @@
     <x v="1"/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
     <s v="↓明日以降やるやつ"/>
     <m/>
@@ -516,6 +535,7 @@
     <x v="4"/>
     <m/>
     <m/>
+    <m/>
     <x v="3"/>
     <s v="明日以降のタスク"/>
     <m/>
@@ -524,12 +544,14 @@
     <x v="1"/>
     <m/>
     <m/>
+    <m/>
     <x v="1"/>
     <s v="↓繰り返し"/>
     <m/>
   </r>
   <r>
     <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <x v="3"/>
@@ -540,9 +562,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F85B99-F968-4177-BBD0-7931B30B2DAF}" name="ピボットテーブル1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="6">
         <item x="0"/>
@@ -553,6 +575,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -576,7 +599,7 @@
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
-    <field x="3"/>
+    <field x="4"/>
   </rowFields>
   <rowItems count="13">
     <i>
@@ -623,7 +646,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="合計 / 作業時間" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="合計 / 実績時間" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -638,15 +661,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}" name="テーブル1" displayName="テーブル1" ref="A1:F10" dataDxfId="8">
-  <autoFilter ref="A1:F10" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FAE3049C-FF2B-4537-9B40-76420902DF54}" name="日付" totalsRowLabel="集計" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D7E988AD-4F77-4AF3-A6B7-3EB388EB0B4D}" name="時刻" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{09B5D8F7-7093-448B-B628-F19C47CE8F0C}" name="作業時間" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{31FBE873-7C88-46A5-B916-6495AA0086F8}" name="プロジェクト" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5E2D21D8-E7DD-4F2A-B1E8-17796822123F}" name="タスク" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C75949A6-BDB1-405F-8E36-80A1EECAC4E9}" name="備考" totalsRowFunction="count" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}" name="テーブル1" displayName="テーブル1" ref="A1:G10" dataDxfId="9">
+  <autoFilter ref="A1:G10" xr:uid="{0C681F38-FDB7-4CCE-B644-CA1F73A309D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FAE3049C-FF2B-4537-9B40-76420902DF54}" name="日付" totalsRowLabel="集計" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D7E988AD-4F77-4AF3-A6B7-3EB388EB0B4D}" name="時刻" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{D0F58E67-BE72-4B4C-A609-3F8B658F75B2}" name="予測時間" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{09B5D8F7-7093-448B-B628-F19C47CE8F0C}" name="実績時間" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{31FBE873-7C88-46A5-B916-6495AA0086F8}" name="プロジェクト" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5E2D21D8-E7DD-4F2A-B1E8-17796822123F}" name="タスク" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{C75949A6-BDB1-405F-8E36-80A1EECAC4E9}" name="備考" totalsRowFunction="count" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -915,22 +939,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="56.125" customWidth="1"/>
-    <col min="7" max="7" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="56.125" customWidth="1"/>
+    <col min="8" max="8" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -938,149 +964,169 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>45109</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7">
         <v>0.25</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>45110</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
         <v>3.5</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>45114</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>45114</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
         <v>3.5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>45111</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="7"/>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="14"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:F10">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$C2 &lt;&gt; ""</formula>
+  <conditionalFormatting sqref="A2:G10">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D2 &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1096,7 +1142,7 @@
   <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1110,10 +1156,10 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1126,7 +1172,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16">
         <v>0.25</v>
@@ -1142,7 +1188,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="16">
         <v>3.5</v>
@@ -1156,7 +1202,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="16"/>
     </row>
@@ -1170,7 +1216,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="16">
         <v>1</v>
@@ -1178,7 +1224,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="16">
         <v>3.5</v>
@@ -1186,25 +1232,25 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="16">
         <v>8.25</v>
